--- a/config_files/Horarios/Palobiofarma, S.L Mataró/Saul Saldaña.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/Saul Saldaña.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="470">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -9355,28 +9355,13 @@
       </c>
     </row>
     <row r="46" ht="15.6" customHeight="true">
-      <c r="Z46" s="100" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AA46" s="105" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="AB46" s="105" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="AC46" s="102" t="n">
-        <v>8.0</v>
-      </c>
+      <c r="Z46" s="100"/>
+      <c r="AA46" s="105"/>
+      <c r="AB46" s="105"/>
+      <c r="AC46" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="T13:V13"/>
     <mergeCell ref="AA40:AC40"/>
     <mergeCell ref="AA33:AC33"/>
     <mergeCell ref="AA34:AC34"/>
@@ -9386,6 +9371,13 @@
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="L32:N32"/>
     <mergeCell ref="T32:V32"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="T13:V13"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/config_files/Horarios/Palobiofarma, S.L Mataró/Saul Saldaña.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/Saul Saldaña.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="473">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -1434,6 +1434,15 @@
   </si>
   <si>
     <t>31/10/2022</t>
+  </si>
+  <si>
+    <t>Vacaciones anteriores</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>VACACIONES</t>
   </si>
 </sst>
 </file>
@@ -5703,7 +5712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="490">
+  <cellXfs count="499">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
@@ -6839,6 +6848,33 @@
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -7368,36 +7404,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="true"/>
-    <col min="2" max="2" width="6.77734375" customWidth="true"/>
-    <col min="3" max="3" width="6.77734375" customWidth="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true"/>
-    <col min="6" max="6" width="6.77734375" customWidth="true"/>
-    <col min="7" max="7" width="6.77734375" customWidth="true"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true"/>
-    <col min="9" max="9" width="2.77734375" customWidth="true"/>
-    <col min="10" max="10" width="6.77734375" customWidth="true"/>
-    <col min="11" max="11" width="6.77734375" customWidth="true"/>
-    <col min="12" max="12" width="6.77734375" customWidth="true"/>
-    <col min="13" max="13" width="6.77734375" customWidth="true"/>
-    <col min="14" max="14" width="6.77734375" customWidth="true"/>
-    <col min="15" max="15" width="6.77734375" customWidth="true"/>
-    <col min="16" max="16" width="6.77734375" customWidth="true"/>
-    <col min="17" max="17" width="2.77734375" customWidth="true"/>
-    <col min="18" max="18" width="6.77734375" customWidth="true"/>
-    <col min="19" max="19" width="6.77734375" customWidth="true"/>
-    <col min="20" max="20" width="6.77734375" customWidth="true"/>
-    <col min="21" max="21" width="6.77734375" customWidth="true"/>
-    <col min="22" max="22" width="6.77734375" customWidth="true"/>
-    <col min="23" max="23" width="6.77734375" customWidth="true"/>
-    <col min="24" max="24" width="6.77734375" customWidth="true"/>
-    <col min="25" max="25" width="10.0" customWidth="true"/>
-    <col min="26" max="26" width="6.0" customWidth="true"/>
-    <col min="27" max="27" width="21.77734375" customWidth="true"/>
-    <col min="28" max="28" width="21.77734375" customWidth="true"/>
-    <col min="29" max="29" width="21.77734375" customWidth="true"/>
-    <col min="30" max="30" width="10.0" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.8" customHeight="true">
@@ -9391,23 +9427,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -9987,23 +10023,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -10590,23 +10626,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11185,23 +11221,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11787,23 +11823,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11982,8 +12018,12 @@
       <c r="B18" s="127" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="128"/>
-      <c r="E18" s="128"/>
+      <c r="C18" s="491" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E18" s="491" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G18" s="125" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
@@ -11993,8 +12033,12 @@
       <c r="B19" s="127" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="128"/>
-      <c r="E19" s="128"/>
+      <c r="C19" s="491" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E19" s="491" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G19" s="125" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -12004,11 +12048,14 @@
       <c r="B20" s="127" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="128"/>
-      <c r="E20" s="128"/>
-      <c r="G20" s="125" t="n">
-        <f>((E20-C20)*24)-1</f>
-        <v>0.0</v>
+      <c r="C20" s="128" t="s">
+        <v>470</v>
+      </c>
+      <c r="E20" s="128" t="s">
+        <v>470</v>
+      </c>
+      <c r="G20" s="125" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="21" ht="14.4" customHeight="true">
@@ -12025,11 +12072,14 @@
       <c r="B22" s="127" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="128"/>
-      <c r="E22" s="128"/>
-      <c r="G22" s="125" t="n">
-        <f>((E22-C22)*24)-1</f>
-        <v>0.0</v>
+      <c r="C22" s="128" t="s">
+        <v>470</v>
+      </c>
+      <c r="E22" s="128" t="s">
+        <v>470</v>
+      </c>
+      <c r="G22" s="125" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="true">
@@ -12056,8 +12106,12 @@
       <c r="B25" s="127" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="128"/>
-      <c r="E25" s="128"/>
+      <c r="C25" s="491" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E25" s="491" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G25" s="125" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -12067,8 +12121,12 @@
       <c r="B26" s="127" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="128"/>
-      <c r="E26" s="128"/>
+      <c r="C26" s="491" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E26" s="491" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G26" s="125" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -12078,8 +12136,12 @@
       <c r="B27" s="127" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="128"/>
-      <c r="E27" s="128"/>
+      <c r="C27" s="491" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E27" s="491" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G27" s="125" t="n">
         <f>((E27-C27)*24)-1</f>
         <v>0.0</v>
@@ -12089,8 +12151,12 @@
       <c r="B28" s="127" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="128"/>
-      <c r="E28" s="128"/>
+      <c r="C28" s="491" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E28" s="491" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G28" s="125" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
@@ -12100,8 +12166,12 @@
       <c r="B29" s="127" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="128"/>
-      <c r="E29" s="128"/>
+      <c r="C29" s="491" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E29" s="491" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G29" s="125" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
@@ -12131,8 +12201,12 @@
       <c r="B32" s="127" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="128"/>
-      <c r="E32" s="128"/>
+      <c r="C32" s="491" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E32" s="491" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G32" s="125" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -12142,8 +12216,12 @@
       <c r="B33" s="127" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="128"/>
-      <c r="E33" s="128"/>
+      <c r="C33" s="491" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E33" s="491" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G33" s="125" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
@@ -12153,8 +12231,12 @@
       <c r="B34" s="127" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="128"/>
-      <c r="E34" s="128"/>
+      <c r="C34" s="491" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E34" s="491" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G34" s="125" t="n">
         <f>((E34-C34)*24)-1</f>
         <v>0.0</v>
@@ -12164,8 +12246,12 @@
       <c r="B35" s="127" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="128"/>
-      <c r="E35" s="128"/>
+      <c r="C35" s="491" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E35" s="491" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G35" s="125" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
@@ -12175,8 +12261,12 @@
       <c r="B36" s="127" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="128"/>
-      <c r="E36" s="128"/>
+      <c r="C36" s="491" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E36" s="491" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G36" s="125" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -12206,8 +12296,12 @@
       <c r="B39" s="127" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="128"/>
-      <c r="E39" s="128"/>
+      <c r="C39" s="491" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E39" s="491" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G39" s="125" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
@@ -12217,8 +12311,12 @@
       <c r="B40" s="127" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="128"/>
-      <c r="E40" s="128"/>
+      <c r="C40" s="491" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E40" s="491" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G40" s="125" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -12228,8 +12326,12 @@
       <c r="B41" s="127" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="128"/>
-      <c r="E41" s="128"/>
+      <c r="C41" s="491" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E41" s="491" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G41" s="125" t="n">
         <f>((E41-C41)*24)-1</f>
         <v>0.0</v>
@@ -12239,8 +12341,12 @@
       <c r="B42" s="127" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="128"/>
-      <c r="E42" s="128"/>
+      <c r="C42" s="491" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E42" s="491" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G42" s="125" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
@@ -12250,8 +12356,12 @@
       <c r="B43" s="127" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="128"/>
-      <c r="E43" s="128"/>
+      <c r="C43" s="491" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E43" s="491" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G43" s="125" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -12281,8 +12391,12 @@
       <c r="B46" s="127" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="128"/>
-      <c r="E46" s="128"/>
+      <c r="C46" s="491" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E46" s="491" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G46" s="125" t="n">
         <f>((E46-C46)*24)-1</f>
         <v>0.0</v>
@@ -12411,23 +12525,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -12585,8 +12699,12 @@
       <c r="B16" s="161" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="162"/>
-      <c r="E16" s="162"/>
+      <c r="C16" s="490" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E16" s="490" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G16" s="159" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
@@ -12596,8 +12714,12 @@
       <c r="B17" s="161" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="162"/>
-      <c r="E17" s="162"/>
+      <c r="C17" s="490" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E17" s="490" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G17" s="159" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
@@ -12607,8 +12729,12 @@
       <c r="B18" s="161" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="162"/>
-      <c r="E18" s="162"/>
+      <c r="C18" s="490" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E18" s="490" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G18" s="159" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
@@ -12618,8 +12744,12 @@
       <c r="B19" s="161" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="162"/>
-      <c r="E19" s="162"/>
+      <c r="C19" s="490" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E19" s="490" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G19" s="159" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -12649,8 +12779,12 @@
       <c r="B22" s="161" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="162"/>
-      <c r="E22" s="162"/>
+      <c r="C22" s="490" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E22" s="490" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G22" s="159" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
@@ -12660,8 +12794,12 @@
       <c r="B23" s="161" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="162"/>
-      <c r="E23" s="162"/>
+      <c r="C23" s="490" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E23" s="490" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G23" s="159" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
@@ -12671,8 +12809,12 @@
       <c r="B24" s="161" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="162"/>
-      <c r="E24" s="162"/>
+      <c r="C24" s="490" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E24" s="490" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G24" s="159" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
@@ -12682,22 +12824,28 @@
       <c r="B25" s="161" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="162"/>
-      <c r="E25" s="162"/>
-      <c r="G25" s="159" t="n">
-        <f>((E25-C25)*24)-1</f>
-        <v>0.0</v>
+      <c r="C25" s="162" t="s">
+        <v>470</v>
+      </c>
+      <c r="E25" s="162" t="s">
+        <v>470</v>
+      </c>
+      <c r="G25" s="159" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="true">
       <c r="B26" s="161" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="162"/>
-      <c r="E26" s="162"/>
-      <c r="G26" s="159" t="n">
-        <f>((E26-C26)*24)-1</f>
-        <v>0.0</v>
+      <c r="C26" s="162" t="s">
+        <v>472</v>
+      </c>
+      <c r="E26" s="162" t="s">
+        <v>472</v>
+      </c>
+      <c r="G26" s="159" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="true">
@@ -12724,8 +12872,12 @@
       <c r="B29" s="161" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="162"/>
-      <c r="E29" s="162"/>
+      <c r="C29" s="490" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E29" s="490" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G29" s="159" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
@@ -12735,8 +12887,12 @@
       <c r="B30" s="161" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="162"/>
-      <c r="E30" s="162"/>
+      <c r="C30" s="490" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E30" s="490" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G30" s="159" t="n">
         <f>((E30-C30)*24)-1</f>
         <v>0.0</v>
@@ -12746,8 +12902,12 @@
       <c r="B31" s="161" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="162"/>
-      <c r="E31" s="162"/>
+      <c r="C31" s="490" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E31" s="490" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G31" s="159" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
@@ -12757,8 +12917,12 @@
       <c r="B32" s="161" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="162"/>
-      <c r="E32" s="162"/>
+      <c r="C32" s="490" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E32" s="490" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G32" s="159" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -12768,8 +12932,12 @@
       <c r="B33" s="161" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="162"/>
-      <c r="E33" s="162"/>
+      <c r="C33" s="490" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E33" s="490" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G33" s="159" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
@@ -12799,8 +12967,12 @@
       <c r="B36" s="161" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="162"/>
-      <c r="E36" s="162"/>
+      <c r="C36" s="490" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E36" s="490" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G36" s="159" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -12810,8 +12982,12 @@
       <c r="B37" s="161" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="162"/>
-      <c r="E37" s="162"/>
+      <c r="C37" s="490" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E37" s="490" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G37" s="159" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
@@ -12821,8 +12997,12 @@
       <c r="B38" s="161" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="162"/>
-      <c r="E38" s="162"/>
+      <c r="C38" s="490" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E38" s="490" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G38" s="159" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
@@ -12832,8 +13012,12 @@
       <c r="B39" s="161" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="162"/>
-      <c r="E39" s="162"/>
+      <c r="C39" s="490" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E39" s="490" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G39" s="159" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
@@ -12843,8 +13027,12 @@
       <c r="B40" s="161" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="162"/>
-      <c r="E40" s="162"/>
+      <c r="C40" s="490" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E40" s="490" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G40" s="159" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -12874,8 +13062,12 @@
       <c r="B43" s="161" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="162"/>
-      <c r="E43" s="162"/>
+      <c r="C43" s="490" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E43" s="490" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G43" s="159" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -13020,23 +13212,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -13194,8 +13386,12 @@
       <c r="B16" s="195" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="196"/>
-      <c r="E16" s="196"/>
+      <c r="C16" s="497" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E16" s="497" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G16" s="193" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
@@ -13205,8 +13401,12 @@
       <c r="B17" s="195" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="196"/>
-      <c r="E17" s="196"/>
+      <c r="C17" s="497" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E17" s="497" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G17" s="193" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
@@ -13216,8 +13416,12 @@
       <c r="B18" s="195" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="196"/>
-      <c r="E18" s="196"/>
+      <c r="C18" s="497" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E18" s="497" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G18" s="193" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
@@ -13227,8 +13431,12 @@
       <c r="B19" s="195" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="196"/>
-      <c r="E19" s="196"/>
+      <c r="C19" s="497" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E19" s="497" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G19" s="193" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -13258,8 +13466,12 @@
       <c r="B22" s="195" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="196"/>
-      <c r="E22" s="196"/>
+      <c r="C22" s="497" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E22" s="497" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G22" s="193" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
@@ -13269,8 +13481,12 @@
       <c r="B23" s="195" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="196"/>
-      <c r="E23" s="196"/>
+      <c r="C23" s="497" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E23" s="497" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G23" s="193" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
@@ -13280,8 +13496,12 @@
       <c r="B24" s="195" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="196"/>
-      <c r="E24" s="196"/>
+      <c r="C24" s="497" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E24" s="497" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G24" s="193" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
@@ -13291,8 +13511,12 @@
       <c r="B25" s="195" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="196"/>
-      <c r="E25" s="196"/>
+      <c r="C25" s="497" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E25" s="497" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G25" s="193" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -13302,8 +13526,12 @@
       <c r="B26" s="195" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="196"/>
-      <c r="E26" s="196"/>
+      <c r="C26" s="497" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E26" s="497" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G26" s="193" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -13333,8 +13561,12 @@
       <c r="B29" s="195" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="196"/>
-      <c r="E29" s="196"/>
+      <c r="C29" s="497" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E29" s="497" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G29" s="193" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
@@ -13344,8 +13576,12 @@
       <c r="B30" s="195" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="196"/>
-      <c r="E30" s="196"/>
+      <c r="C30" s="497" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E30" s="497" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G30" s="193" t="n">
         <f>((E30-C30)*24)-1</f>
         <v>0.0</v>
@@ -13355,8 +13591,12 @@
       <c r="B31" s="195" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="196"/>
-      <c r="E31" s="196"/>
+      <c r="C31" s="497" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E31" s="497" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G31" s="193" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
@@ -13366,8 +13606,12 @@
       <c r="B32" s="195" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="196"/>
-      <c r="E32" s="196"/>
+      <c r="C32" s="497" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E32" s="497" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G32" s="193" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -13377,8 +13621,12 @@
       <c r="B33" s="195" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="196"/>
-      <c r="E33" s="196"/>
+      <c r="C33" s="497" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E33" s="497" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G33" s="193" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
@@ -13408,8 +13656,12 @@
       <c r="B36" s="195" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="196"/>
-      <c r="E36" s="196"/>
+      <c r="C36" s="497" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E36" s="497" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G36" s="193" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -13419,8 +13671,12 @@
       <c r="B37" s="195" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="196"/>
-      <c r="E37" s="196"/>
+      <c r="C37" s="497" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E37" s="497" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G37" s="193" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
@@ -13430,8 +13686,12 @@
       <c r="B38" s="195" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="196"/>
-      <c r="E38" s="196"/>
+      <c r="C38" s="497" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E38" s="497" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G38" s="193" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
@@ -13441,8 +13701,12 @@
       <c r="B39" s="195" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="196"/>
-      <c r="E39" s="196"/>
+      <c r="C39" s="497" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E39" s="497" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G39" s="193" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
@@ -13452,8 +13716,12 @@
       <c r="B40" s="195" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="196"/>
-      <c r="E40" s="196"/>
+      <c r="C40" s="497" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E40" s="497" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G40" s="193" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -13483,8 +13751,12 @@
       <c r="B43" s="195" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="196"/>
-      <c r="E43" s="196"/>
+      <c r="C43" s="497" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E43" s="497" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G43" s="193" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -13494,8 +13766,12 @@
       <c r="B44" s="195" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="196"/>
-      <c r="E44" s="196"/>
+      <c r="C44" s="497" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E44" s="497" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G44" s="193" t="n">
         <f>((E44-C44)*24)-1</f>
         <v>0.0</v>
@@ -13505,8 +13781,12 @@
       <c r="B45" s="195" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="196"/>
-      <c r="E45" s="196"/>
+      <c r="C45" s="497" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E45" s="497" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G45" s="193" t="n">
         <f>((E45-C45)*24)-1</f>
         <v>0.0</v>
@@ -13516,8 +13796,12 @@
       <c r="B46" s="195" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="196"/>
-      <c r="E46" s="196"/>
+      <c r="C46" s="497" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E46" s="497" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G46" s="193" t="n">
         <f>((E46-C46)*24)-1</f>
         <v>0.0</v>
@@ -13641,23 +13925,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -13815,8 +14099,12 @@
       <c r="B16" s="228" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="229"/>
-      <c r="E16" s="229"/>
+      <c r="C16" s="498" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E16" s="498" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G16" s="226" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
@@ -13846,8 +14134,12 @@
       <c r="B19" s="228" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="229"/>
-      <c r="E19" s="229"/>
+      <c r="C19" s="498" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E19" s="498" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G19" s="226" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -13857,8 +14149,12 @@
       <c r="B20" s="228" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="229"/>
-      <c r="E20" s="229"/>
+      <c r="C20" s="498" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E20" s="498" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G20" s="226" t="n">
         <f>((E20-C20)*24)-1</f>
         <v>0.0</v>
@@ -13868,8 +14164,12 @@
       <c r="B21" s="228" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="229"/>
-      <c r="E21" s="229"/>
+      <c r="C21" s="498" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E21" s="498" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G21" s="226" t="n">
         <f>((E21-C21)*24)-1</f>
         <v>0.0</v>
@@ -13879,8 +14179,12 @@
       <c r="B22" s="228" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="229"/>
-      <c r="E22" s="229"/>
+      <c r="C22" s="498" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E22" s="498" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G22" s="226" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
@@ -13890,8 +14194,12 @@
       <c r="B23" s="228" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="229"/>
-      <c r="E23" s="229"/>
+      <c r="C23" s="498" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E23" s="498" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G23" s="226" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
@@ -13921,8 +14229,12 @@
       <c r="B26" s="228" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="229"/>
-      <c r="E26" s="229"/>
+      <c r="C26" s="498" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E26" s="498" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G26" s="226" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -13932,8 +14244,12 @@
       <c r="B27" s="228" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="229"/>
-      <c r="E27" s="229"/>
+      <c r="C27" s="498" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E27" s="498" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G27" s="226" t="n">
         <f>((E27-C27)*24)-1</f>
         <v>0.0</v>
@@ -14253,23 +14569,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -14873,23 +15189,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -15471,23 +15787,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -16073,23 +16389,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">

--- a/config_files/Horarios/Palobiofarma, S.L Mataró/Saul Saldaña.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/Saul Saldaña.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="473">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -5712,7 +5712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="499">
+  <cellXfs count="509">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
@@ -6848,6 +6848,36 @@
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment horizontal="center"/>
@@ -12503,6 +12533,7 @@
       <c r="H62" s="139"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -13190,6 +13221,7 @@
       <c r="H62" s="173"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="B58:H62"/>
@@ -13903,6 +13935,7 @@
       <c r="H62" s="206"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -14099,10 +14132,10 @@
       <c r="B16" s="228" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="498" t="n">
+      <c r="C16" s="503" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E16" s="498" t="n">
+      <c r="E16" s="503" t="n">
         <v>0.7083333333333334</v>
       </c>
       <c r="G16" s="226" t="n">
@@ -14134,10 +14167,10 @@
       <c r="B19" s="228" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="498" t="n">
+      <c r="C19" s="503" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E19" s="498" t="n">
+      <c r="E19" s="503" t="n">
         <v>0.7083333333333334</v>
       </c>
       <c r="G19" s="226" t="n">
@@ -14149,10 +14182,10 @@
       <c r="B20" s="228" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="498" t="n">
+      <c r="C20" s="503" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E20" s="498" t="n">
+      <c r="E20" s="503" t="n">
         <v>0.7083333333333334</v>
       </c>
       <c r="G20" s="226" t="n">
@@ -14164,10 +14197,10 @@
       <c r="B21" s="228" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="498" t="n">
+      <c r="C21" s="503" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E21" s="498" t="n">
+      <c r="E21" s="503" t="n">
         <v>0.7083333333333334</v>
       </c>
       <c r="G21" s="226" t="n">
@@ -14179,10 +14212,10 @@
       <c r="B22" s="228" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="498" t="n">
+      <c r="C22" s="503" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E22" s="498" t="n">
+      <c r="E22" s="503" t="n">
         <v>0.7083333333333334</v>
       </c>
       <c r="G22" s="226" t="n">
@@ -14194,10 +14227,10 @@
       <c r="B23" s="228" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="498" t="n">
+      <c r="C23" s="503" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E23" s="498" t="n">
+      <c r="E23" s="503" t="n">
         <v>0.7083333333333334</v>
       </c>
       <c r="G23" s="226" t="n">
@@ -14229,10 +14262,10 @@
       <c r="B26" s="228" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="498" t="n">
+      <c r="C26" s="503" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E26" s="498" t="n">
+      <c r="E26" s="503" t="n">
         <v>0.7083333333333334</v>
       </c>
       <c r="G26" s="226" t="n">
@@ -14244,10 +14277,10 @@
       <c r="B27" s="228" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="498" t="n">
+      <c r="C27" s="503" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E27" s="498" t="n">
+      <c r="E27" s="503" t="n">
         <v>0.7083333333333334</v>
       </c>
       <c r="G27" s="226" t="n">
@@ -14259,8 +14292,12 @@
       <c r="B28" s="228" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="229"/>
-      <c r="E28" s="229"/>
+      <c r="C28" s="503" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E28" s="503" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G28" s="226" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
@@ -14270,8 +14307,12 @@
       <c r="B29" s="228" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="229"/>
-      <c r="E29" s="229"/>
+      <c r="C29" s="503" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E29" s="503" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G29" s="226" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
@@ -14321,8 +14362,12 @@
       <c r="B34" s="228" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="229"/>
-      <c r="E34" s="229"/>
+      <c r="C34" s="503" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E34" s="503" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G34" s="226" t="n">
         <f>((E34-C34)*24)-1</f>
         <v>0.0</v>
@@ -14332,8 +14377,12 @@
       <c r="B35" s="228" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="229"/>
-      <c r="E35" s="229"/>
+      <c r="C35" s="503" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E35" s="503" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G35" s="226" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
@@ -14343,8 +14392,12 @@
       <c r="B36" s="228" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="229"/>
-      <c r="E36" s="229"/>
+      <c r="C36" s="503" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E36" s="503" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G36" s="226" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -14354,8 +14407,12 @@
       <c r="B37" s="228" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="229"/>
-      <c r="E37" s="229"/>
+      <c r="C37" s="503" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E37" s="503" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G37" s="226" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
@@ -14385,8 +14442,12 @@
       <c r="B40" s="228" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="229"/>
-      <c r="E40" s="229"/>
+      <c r="C40" s="503" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E40" s="503" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G40" s="226" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -14396,8 +14457,12 @@
       <c r="B41" s="228" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="229"/>
-      <c r="E41" s="229"/>
+      <c r="C41" s="503" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E41" s="503" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G41" s="226" t="n">
         <f>((E41-C41)*24)-1</f>
         <v>0.0</v>
@@ -14407,8 +14472,12 @@
       <c r="B42" s="228" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="229"/>
-      <c r="E42" s="229"/>
+      <c r="C42" s="503" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E42" s="503" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G42" s="226" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
@@ -14418,8 +14487,12 @@
       <c r="B43" s="228" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="229"/>
-      <c r="E43" s="229"/>
+      <c r="C43" s="503" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E43" s="503" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G43" s="226" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -14429,8 +14502,12 @@
       <c r="B44" s="228" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="229"/>
-      <c r="E44" s="229"/>
+      <c r="C44" s="503" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E44" s="503" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G44" s="226" t="n">
         <f>((E44-C44)*24)-1</f>
         <v>0.0</v>
@@ -14547,6 +14624,7 @@
       <c r="H62" s="239"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -14753,8 +14831,12 @@
       <c r="B17" s="261" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="262"/>
-      <c r="E17" s="262"/>
+      <c r="C17" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E17" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G17" s="259" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
@@ -14764,8 +14846,12 @@
       <c r="B18" s="261" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="262"/>
-      <c r="E18" s="262"/>
+      <c r="C18" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E18" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G18" s="259" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
@@ -14775,8 +14861,12 @@
       <c r="B19" s="261" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="262"/>
-      <c r="E19" s="262"/>
+      <c r="C19" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E19" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G19" s="259" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -14786,8 +14876,12 @@
       <c r="B20" s="261" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="262"/>
-      <c r="E20" s="262"/>
+      <c r="C20" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E20" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G20" s="259" t="n">
         <f>((E20-C20)*24)-1</f>
         <v>0.0</v>
@@ -14797,8 +14891,12 @@
       <c r="B21" s="261" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="262"/>
-      <c r="E21" s="262"/>
+      <c r="C21" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E21" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G21" s="259" t="n">
         <f>((E21-C21)*24)-1</f>
         <v>0.0</v>
@@ -14828,8 +14926,12 @@
       <c r="B24" s="261" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="262"/>
-      <c r="E24" s="262"/>
+      <c r="C24" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E24" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G24" s="259" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
@@ -14839,8 +14941,12 @@
       <c r="B25" s="261" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="262"/>
-      <c r="E25" s="262"/>
+      <c r="C25" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E25" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G25" s="259" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -14850,8 +14956,12 @@
       <c r="B26" s="261" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="262"/>
-      <c r="E26" s="262"/>
+      <c r="C26" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E26" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G26" s="259" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -14861,8 +14971,12 @@
       <c r="B27" s="261" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="262"/>
-      <c r="E27" s="262"/>
+      <c r="C27" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E27" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G27" s="259" t="n">
         <f>((E27-C27)*24)-1</f>
         <v>0.0</v>
@@ -14872,8 +14986,12 @@
       <c r="B28" s="261" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="262"/>
-      <c r="E28" s="262"/>
+      <c r="C28" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E28" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G28" s="259" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
@@ -14903,8 +15021,12 @@
       <c r="B31" s="261" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="262"/>
-      <c r="E31" s="262"/>
+      <c r="C31" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E31" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G31" s="259" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
@@ -14914,8 +15036,12 @@
       <c r="B32" s="261" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="262"/>
-      <c r="E32" s="262"/>
+      <c r="C32" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E32" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G32" s="259" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -14925,8 +15051,12 @@
       <c r="B33" s="261" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="262"/>
-      <c r="E33" s="262"/>
+      <c r="C33" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E33" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G33" s="259" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
@@ -14936,8 +15066,12 @@
       <c r="B34" s="261" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="262"/>
-      <c r="E34" s="262"/>
+      <c r="C34" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E34" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G34" s="259" t="n">
         <f>((E34-C34)*24)-1</f>
         <v>0.0</v>
@@ -14947,8 +15081,12 @@
       <c r="B35" s="261" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="262"/>
-      <c r="E35" s="262"/>
+      <c r="C35" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E35" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G35" s="259" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
@@ -14978,8 +15116,12 @@
       <c r="B38" s="261" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="262"/>
-      <c r="E38" s="262"/>
+      <c r="C38" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E38" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G38" s="259" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
@@ -14989,8 +15131,12 @@
       <c r="B39" s="261" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="262"/>
-      <c r="E39" s="262"/>
+      <c r="C39" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E39" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G39" s="259" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
@@ -15000,8 +15146,12 @@
       <c r="B40" s="261" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="262"/>
-      <c r="E40" s="262"/>
+      <c r="C40" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E40" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G40" s="259" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -15011,8 +15161,12 @@
       <c r="B41" s="261" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="262"/>
-      <c r="E41" s="262"/>
+      <c r="C41" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E41" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G41" s="259" t="n">
         <f>((E41-C41)*24)-1</f>
         <v>0.0</v>
@@ -15022,8 +15176,12 @@
       <c r="B42" s="261" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="262"/>
-      <c r="E42" s="262"/>
+      <c r="C42" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E42" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G42" s="259" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
@@ -15053,8 +15211,12 @@
       <c r="B45" s="261" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="262"/>
-      <c r="E45" s="262"/>
+      <c r="C45" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E45" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G45" s="259" t="n">
         <f>((E45-C45)*24)-1</f>
         <v>0.0</v>
@@ -15064,8 +15226,12 @@
       <c r="B46" s="261" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="262"/>
-      <c r="E46" s="262"/>
+      <c r="C46" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E46" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G46" s="259" t="n">
         <f>((E46-C46)*24)-1</f>
         <v>0.0</v>
@@ -15167,6 +15333,7 @@
       <c r="H62" s="272"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -15352,8 +15519,12 @@
       <c r="B16" s="293" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="294"/>
-      <c r="E16" s="294"/>
+      <c r="C16" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E16" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G16" s="291" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
@@ -15363,8 +15534,12 @@
       <c r="B17" s="293" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="294"/>
-      <c r="E17" s="294"/>
+      <c r="C17" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E17" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G17" s="291" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
@@ -15374,8 +15549,12 @@
       <c r="B18" s="293" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="294"/>
-      <c r="E18" s="294"/>
+      <c r="C18" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E18" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G18" s="291" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
@@ -15415,8 +15594,12 @@
       <c r="B22" s="293" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="294"/>
-      <c r="E22" s="294"/>
+      <c r="C22" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E22" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G22" s="291" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
@@ -15426,8 +15609,12 @@
       <c r="B23" s="293" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="294"/>
-      <c r="E23" s="294"/>
+      <c r="C23" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E23" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G23" s="291" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
@@ -15437,8 +15624,12 @@
       <c r="B24" s="293" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="294"/>
-      <c r="E24" s="294"/>
+      <c r="C24" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E24" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G24" s="291" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
@@ -15448,8 +15639,12 @@
       <c r="B25" s="293" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="294"/>
-      <c r="E25" s="294"/>
+      <c r="C25" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E25" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G25" s="291" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -15479,8 +15674,12 @@
       <c r="B28" s="293" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="294"/>
-      <c r="E28" s="294"/>
+      <c r="C28" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E28" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G28" s="291" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
@@ -15490,8 +15689,12 @@
       <c r="B29" s="293" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="294"/>
-      <c r="E29" s="294"/>
+      <c r="C29" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E29" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G29" s="291" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
@@ -15501,8 +15704,12 @@
       <c r="B30" s="293" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="294"/>
-      <c r="E30" s="294"/>
+      <c r="C30" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E30" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G30" s="291" t="n">
         <f>((E30-C30)*24)-1</f>
         <v>0.0</v>
@@ -15512,8 +15719,12 @@
       <c r="B31" s="293" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="294"/>
-      <c r="E31" s="294"/>
+      <c r="C31" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E31" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G31" s="291" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
@@ -15523,8 +15734,12 @@
       <c r="B32" s="293" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="294"/>
-      <c r="E32" s="294"/>
+      <c r="C32" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E32" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G32" s="291" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -15554,8 +15769,12 @@
       <c r="B35" s="293" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="294"/>
-      <c r="E35" s="294"/>
+      <c r="C35" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E35" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G35" s="291" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
@@ -15565,8 +15784,12 @@
       <c r="B36" s="293" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="294"/>
-      <c r="E36" s="294"/>
+      <c r="C36" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E36" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G36" s="291" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -15576,8 +15799,12 @@
       <c r="B37" s="293" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="294"/>
-      <c r="E37" s="294"/>
+      <c r="C37" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E37" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G37" s="291" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
@@ -15587,8 +15814,12 @@
       <c r="B38" s="293" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="294"/>
-      <c r="E38" s="294"/>
+      <c r="C38" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E38" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G38" s="291" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
@@ -15628,8 +15859,12 @@
       <c r="B42" s="293" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="294"/>
-      <c r="E42" s="294"/>
+      <c r="C42" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E42" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G42" s="291" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
@@ -15639,8 +15874,12 @@
       <c r="B43" s="293" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="294"/>
-      <c r="E43" s="294"/>
+      <c r="C43" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E43" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G43" s="291" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -15650,8 +15889,12 @@
       <c r="B44" s="293" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="294"/>
-      <c r="E44" s="294"/>
+      <c r="C44" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E44" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G44" s="291" t="n">
         <f>((E44-C44)*24)-1</f>
         <v>0.0</v>
@@ -15661,8 +15904,12 @@
       <c r="B45" s="293" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="294"/>
-      <c r="E45" s="294"/>
+      <c r="C45" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E45" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G45" s="291" t="n">
         <f>((E45-C45)*24)-1</f>
         <v>0.0</v>
@@ -15765,6 +16012,7 @@
       <c r="H62" s="303"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -15946,8 +16194,12 @@
       <c r="B16" s="323" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="324"/>
-      <c r="E16" s="324"/>
+      <c r="C16" s="508" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E16" s="508" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G16" s="321" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
@@ -15977,8 +16229,12 @@
       <c r="B19" s="323" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="324"/>
-      <c r="E19" s="324"/>
+      <c r="C19" s="508" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E19" s="508" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G19" s="321" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -15988,8 +16244,12 @@
       <c r="B20" s="323" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="324"/>
-      <c r="E20" s="324"/>
+      <c r="C20" s="508" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E20" s="508" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G20" s="321" t="n">
         <f>((E20-C20)*24)-1</f>
         <v>0.0</v>
@@ -15999,8 +16259,12 @@
       <c r="B21" s="323" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="324"/>
-      <c r="E21" s="324"/>
+      <c r="C21" s="508" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E21" s="508" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G21" s="321" t="n">
         <f>((E21-C21)*24)-1</f>
         <v>0.0</v>
@@ -16010,8 +16274,12 @@
       <c r="B22" s="323" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="324"/>
-      <c r="E22" s="324"/>
+      <c r="C22" s="508" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E22" s="508" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G22" s="321" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
@@ -16021,8 +16289,12 @@
       <c r="B23" s="323" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="324"/>
-      <c r="E23" s="324"/>
+      <c r="C23" s="508" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E23" s="508" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G23" s="321" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
@@ -16052,8 +16324,12 @@
       <c r="B26" s="323" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="324"/>
-      <c r="E26" s="324"/>
+      <c r="C26" s="508" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E26" s="508" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G26" s="321" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -16063,8 +16339,12 @@
       <c r="B27" s="323" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="324"/>
-      <c r="E27" s="324"/>
+      <c r="C27" s="508" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E27" s="508" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G27" s="321" t="n">
         <f>((E27-C27)*24)-1</f>
         <v>0.0</v>
@@ -16074,8 +16354,12 @@
       <c r="B28" s="323" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="324"/>
-      <c r="E28" s="324"/>
+      <c r="C28" s="508" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E28" s="508" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G28" s="321" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
@@ -16085,8 +16369,12 @@
       <c r="B29" s="323" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="324"/>
-      <c r="E29" s="324"/>
+      <c r="C29" s="508" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E29" s="508" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G29" s="321" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
@@ -16096,8 +16384,12 @@
       <c r="B30" s="323" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="324"/>
-      <c r="E30" s="324"/>
+      <c r="C30" s="508" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E30" s="508" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G30" s="321" t="n">
         <f>((E30-C30)*24)-1</f>
         <v>0.0</v>
@@ -16127,8 +16419,12 @@
       <c r="B33" s="323" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="324"/>
-      <c r="E33" s="324"/>
+      <c r="C33" s="508" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E33" s="508" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G33" s="321" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
@@ -16138,8 +16434,12 @@
       <c r="B34" s="323" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="324"/>
-      <c r="E34" s="324"/>
+      <c r="C34" s="508" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E34" s="508" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G34" s="321" t="n">
         <f>((E34-C34)*24)-1</f>
         <v>0.0</v>
@@ -16244,11 +16544,14 @@
       <c r="B44" s="323" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="324"/>
-      <c r="E44" s="324"/>
-      <c r="G44" s="321" t="n">
-        <f>((E44-C44)*24)-1</f>
-        <v>0.0</v>
+      <c r="C44" s="324" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="324" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" s="321" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="45" ht="14.4" customHeight="true">

--- a/config_files/Horarios/Palobiofarma, S.L Mataró/Saul Saldaña.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/Saul Saldaña.xlsx
@@ -2,6 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
     <sheet state="visible" name="2022" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="1" sheetId="2" r:id="rId5"/>
@@ -17,7 +20,6 @@
     <sheet state="visible" name="11" sheetId="12" r:id="rId15"/>
     <sheet state="visible" name="12" sheetId="13" r:id="rId16"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="119">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -382,6 +384,9 @@
   </si>
   <si>
     <t>Diciembre</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -1322,7 +1327,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1608,6 +1613,9 @@
     </xf>
     <xf borderId="31" fillId="12" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2216,20 +2224,21 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:AC1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="2.71"/>
-    <col customWidth="1" min="2" max="8" width="6.71"/>
-    <col customWidth="1" min="9" max="9" width="2.71"/>
-    <col customWidth="1" min="10" max="16" width="6.71"/>
-    <col customWidth="1" min="17" max="17" width="2.71"/>
-    <col customWidth="1" min="18" max="24" width="6.71"/>
-    <col customWidth="1" min="25" max="25" width="10.0"/>
-    <col customWidth="1" min="26" max="26" width="6.0"/>
-    <col customWidth="1" min="27" max="29" width="21.71"/>
+    <col min="1" max="1" customWidth="true" width="2.71" collapsed="false"/>
+    <col min="2" max="8" customWidth="true" width="6.71" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="2.71" collapsed="false"/>
+    <col min="10" max="16" customWidth="true" width="6.71" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="2.71" collapsed="false"/>
+    <col min="18" max="24" customWidth="true" width="6.71" collapsed="false"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="26" max="26" customWidth="true" width="6.0" collapsed="false"/>
+    <col min="27" max="29" customWidth="true" width="21.71" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1">
@@ -5170,24 +5179,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="false"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -6663,24 +6673,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="false"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -8163,24 +8174,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="false"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -9655,24 +9667,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="false"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -11154,24 +11167,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="false"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -12753,24 +12767,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="false"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -14337,24 +14352,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="false"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -15947,24 +15963,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="false"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -17532,24 +17549,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="false"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -19137,24 +19155,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="false"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -20713,24 +20732,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="false"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -22267,24 +22287,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="false"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -22457,22 +22478,28 @@
       <c r="B19" s="122">
         <v>4.0</v>
       </c>
-      <c r="C19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="G19" s="106">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C19" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="B20" s="122">
         <v>5.0</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="G20" s="106">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C20" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
@@ -22499,55 +22526,70 @@
       <c r="B23" s="122">
         <v>8.0</v>
       </c>
-      <c r="C23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="G23" s="106">
-        <f t="shared" ref="G23:G27" si="2">IF((E23-C23)*24&lt;=4,(E23-C23)*24,(E23-C23)*24-1)</f>
-        <v>0</v>
+      <c r="C23" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="B24" s="122">
         <v>9.0</v>
       </c>
-      <c r="C24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="G24" s="106">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C24" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="B25" s="122">
         <v>10.0</v>
       </c>
-      <c r="C25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="G25" s="106">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C25" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="B26" s="122">
         <v>11.0</v>
       </c>
-      <c r="C26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="G26" s="106">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C26" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="B27" s="122">
         <v>12.0</v>
       </c>
-      <c r="C27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="G27" s="106">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C27" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
@@ -22584,22 +22626,28 @@
       <c r="B31" s="122">
         <v>16.0</v>
       </c>
-      <c r="C31" s="110"/>
-      <c r="E31" s="110"/>
-      <c r="G31" s="106">
-        <f t="shared" ref="G31:G34" si="3">IF((E31-C31)*24&lt;=4,(E31-C31)*24,(E31-C31)*24-1)</f>
-        <v>0</v>
+      <c r="C31" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="B32" s="122">
         <v>17.0</v>
       </c>
-      <c r="C32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="G32" s="106">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C32" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
@@ -22609,7 +22657,7 @@
       <c r="C33" s="110"/>
       <c r="E33" s="110"/>
       <c r="G33" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="3" ref="G33:G34">IF((E33-C33)*24&lt;=4,(E33-C33)*24,(E33-C33)*24-1)</f>
         <v>0</v>
       </c>
     </row>
